--- a/biology/Zoologie/Amytis_noir/Amytis_noir.xlsx
+++ b/biology/Zoologie/Amytis_noir/Amytis_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amytornis housei
 L’Amytis noir (Amytornis housei) est une espèce de passereau de la famille des Maluridae.
@@ -512,10 +524,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique en Australie-Occidentale. 
-Il vit dans les prairies, il est particulièrement commun dans les zones denses de Triodia[1].
+Il vit dans les prairies, il est particulièrement commun dans les zones denses de Triodia.
 Il habite les zones de broussailles de type méditerranéen[réf. nécessaire].
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est monotypique.
 </t>
@@ -576,7 +592,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Milligan, 1902 : Report on the birds collected, in Report on Exploration of the North-West Kimberley, 1901, by F.S. Brockman. Western Australian Parliamentary Paper, 2, p. 52-59.</t>
         </is>
